--- a/Test Procedure/Symptom Checker/Diabetes.xlsx
+++ b/Test Procedure/Symptom Checker/Diabetes.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="3">
   <si>
     <t>Diabetes</t>
-  </si>
-  <si>
-    <t>Bronchitis</t>
   </si>
   <si>
     <t>Conjunctivitis</t>
@@ -474,7 +471,7 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -507,7 +504,7 @@
         <v>63</v>
       </c>
       <c r="C15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -540,7 +537,7 @@
         <v>63</v>
       </c>
       <c r="C18" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -587,7 +584,7 @@
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -629,7 +626,7 @@
         <v>63</v>
       </c>
       <c r="D25" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -671,7 +668,7 @@
         <v>63</v>
       </c>
       <c r="D28" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -741,7 +738,7 @@
         <v>22</v>
       </c>
       <c r="D33" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -755,7 +752,7 @@
         <v>63</v>
       </c>
       <c r="D34" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -797,7 +794,7 @@
         <v>63</v>
       </c>
       <c r="D37" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -839,7 +836,7 @@
         <v>63</v>
       </c>
       <c r="D40" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -870,7 +867,7 @@
         <v>20</v>
       </c>
       <c r="E42" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -887,7 +884,7 @@
         <v>22</v>
       </c>
       <c r="E43" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -904,7 +901,7 @@
         <v>63</v>
       </c>
       <c r="E44" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -938,7 +935,7 @@
         <v>63</v>
       </c>
       <c r="E46" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -955,7 +952,7 @@
         <v>63</v>
       </c>
       <c r="E47" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -989,7 +986,7 @@
         <v>63</v>
       </c>
       <c r="E49" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1006,7 +1003,7 @@
         <v>63</v>
       </c>
       <c r="E50" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1057,7 +1054,7 @@
         <v>63</v>
       </c>
       <c r="E53" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1074,7 +1071,7 @@
         <v>63</v>
       </c>
       <c r="E54" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1148,7 +1145,7 @@
         <v>63</v>
       </c>
       <c r="F58" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1168,7 +1165,7 @@
         <v>63</v>
       </c>
       <c r="F59" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1228,7 +1225,7 @@
         <v>63</v>
       </c>
       <c r="F62" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1251,7 +1248,7 @@
         <v>63</v>
       </c>
       <c r="G63" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Test Procedure/Symptom Checker/Diabetes.xlsx
+++ b/Test Procedure/Symptom Checker/Diabetes.xlsx
@@ -1,15 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27510"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Mason/Documents/Senior-Design-2-Electric-Boogaloo/Test Procedure/Symptom Checker/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="14680"/>
   </bookViews>
   <sheets>
     <sheet name="Diabetes" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -28,8 +41,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,14 +71,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -112,12 +131,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -144,14 +163,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -178,6 +198,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -353,46 +374,151 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="172" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1">
+        <v>2</v>
+      </c>
+      <c r="H1">
+        <v>3</v>
+      </c>
+      <c r="I1">
+        <v>4</v>
+      </c>
+      <c r="J1">
+        <v>5</v>
+      </c>
+      <c r="K1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="F2">
+        <f>COUNTIF(B:B, "Diabetes")</f>
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:K2" si="0">COUNTIF(C:C, "Diabetes")</f>
+        <v>15</v>
+      </c>
+      <c r="H2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <f>SUM(F2:K2)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="F3">
+        <f>COUNTIF(B:B, "*")</f>
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:O3" si="1">COUNTIF(C:C, "*")</f>
+        <v>15</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <f>SUM(F3:K3)</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="F4" s="1">
+        <f>F2/F3</f>
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" ref="G4:M4" si="2">G2/G3</f>
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1">
+        <f t="shared" si="2"/>
+        <v>0.95238095238095233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>22</v>
       </c>
@@ -400,7 +526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>63</v>
       </c>
@@ -408,7 +534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -419,7 +545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3</v>
       </c>
@@ -430,7 +556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3</v>
       </c>
@@ -441,7 +567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3</v>
       </c>
@@ -452,7 +578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3</v>
       </c>
@@ -463,7 +589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>4</v>
       </c>
@@ -474,7 +600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>4</v>
       </c>
@@ -485,7 +611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>4</v>
       </c>
@@ -496,7 +622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>4</v>
       </c>
@@ -507,7 +633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>5</v>
       </c>
@@ -518,7 +644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>5</v>
       </c>
@@ -529,7 +655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>5</v>
       </c>
@@ -540,7 +666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>20</v>
       </c>
@@ -551,7 +677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>20</v>
       </c>
@@ -562,7 +688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>22</v>
       </c>
@@ -573,7 +699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3</v>
       </c>
@@ -587,7 +713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3</v>
       </c>
@@ -601,7 +727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3</v>
       </c>
@@ -615,7 +741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3</v>
       </c>
@@ -629,7 +755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>3</v>
       </c>
@@ -643,7 +769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>3</v>
       </c>
@@ -657,7 +783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>3</v>
       </c>
@@ -671,7 +797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>3</v>
       </c>
@@ -685,7 +811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>3</v>
       </c>
@@ -699,7 +825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>3</v>
       </c>
@@ -713,7 +839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>4</v>
       </c>
@@ -727,7 +853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>4</v>
       </c>
@@ -741,7 +867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>4</v>
       </c>
@@ -755,7 +881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>4</v>
       </c>
@@ -769,7 +895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>4</v>
       </c>
@@ -783,7 +909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>4</v>
       </c>
@@ -797,7 +923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>5</v>
       </c>
@@ -811,7 +937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>5</v>
       </c>
@@ -825,7 +951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>5</v>
       </c>
@@ -839,7 +965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>20</v>
       </c>
@@ -853,7 +979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>3</v>
       </c>
@@ -870,7 +996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>3</v>
       </c>
@@ -887,7 +1013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>3</v>
       </c>
@@ -904,7 +1030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>3</v>
       </c>
@@ -921,7 +1047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>3</v>
       </c>
@@ -938,7 +1064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>3</v>
       </c>
@@ -955,7 +1081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>3</v>
       </c>
@@ -972,7 +1098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>3</v>
       </c>
@@ -989,7 +1115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>3</v>
       </c>
@@ -1006,7 +1132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>3</v>
       </c>
@@ -1023,7 +1149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>4</v>
       </c>
@@ -1040,7 +1166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>4</v>
       </c>
@@ -1057,7 +1183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>4</v>
       </c>
@@ -1074,7 +1200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>4</v>
       </c>
@@ -1091,7 +1217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>5</v>
       </c>
@@ -1108,7 +1234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>3</v>
       </c>
@@ -1128,7 +1254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>3</v>
       </c>
@@ -1148,7 +1274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>3</v>
       </c>
@@ -1168,7 +1294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>3</v>
       </c>
@@ -1188,7 +1314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>3</v>
       </c>
@@ -1208,7 +1334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>4</v>
       </c>
@@ -1228,7 +1354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>3</v>
       </c>
